--- a/team_specific_matrix/Manhattan_A.xlsx
+++ b/team_specific_matrix/Manhattan_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.162962962962963</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C2">
-        <v>0.5555555555555556</v>
+        <v>0.5343915343915344</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01481481481481482</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1407407407407407</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1259259259259259</v>
+        <v>0.1005291005291005</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0131578947368421</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03947368421052631</v>
+        <v>0.04901960784313725</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7368421052631579</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2105263157894737</v>
+        <v>0.196078431372549</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03125</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.75</v>
+        <v>0.7073170731707317</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.21875</v>
+        <v>0.2682926829268293</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04081632653061224</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006802721088435374</v>
+        <v>0.015625</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04081632653061224</v>
+        <v>0.03645833333333334</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.217687074829932</v>
+        <v>0.2135416666666667</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1292517006802721</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="R6">
-        <v>0.06802721088435375</v>
+        <v>0.0625</v>
       </c>
       <c r="S6">
-        <v>0.4965986394557823</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.04615384615384616</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03846153846153846</v>
+        <v>0.04320987654320987</v>
       </c>
       <c r="E7">
-        <v>0.007692307692307693</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="F7">
-        <v>0.06923076923076923</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1230769230769231</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.007692307692307693</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2</v>
+        <v>0.1728395061728395</v>
       </c>
       <c r="R7">
-        <v>0.1461538461538462</v>
+        <v>0.1358024691358025</v>
       </c>
       <c r="S7">
-        <v>0.3615384615384615</v>
+        <v>0.382716049382716</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.064</v>
+        <v>0.06004140786749482</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01333333333333333</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07466666666666667</v>
+        <v>0.07867494824016563</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02933333333333333</v>
+        <v>0.02691511387163561</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.168</v>
+        <v>0.1697722567287785</v>
       </c>
       <c r="R8">
-        <v>0.09333333333333334</v>
+        <v>0.09109730848861283</v>
       </c>
       <c r="S8">
-        <v>0.4773333333333333</v>
+        <v>0.4720496894409938</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05072463768115942</v>
+        <v>0.05978260869565218</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04347826086956522</v>
+        <v>0.05978260869565218</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,34 +935,34 @@
         <v>0</v>
       </c>
       <c r="J9">
+        <v>0.07065217391304347</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0.01630434782608696</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.1467391304347826</v>
+      </c>
+      <c r="R9">
         <v>0.08695652173913043</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0.007246376811594203</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0.1594202898550725</v>
-      </c>
-      <c r="R9">
-        <v>0.1014492753623188</v>
-      </c>
       <c r="S9">
-        <v>0.5507246376811594</v>
+        <v>0.5543478260869565</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.07683073229291716</v>
+        <v>0.07949412827461608</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02761104441776711</v>
+        <v>0.02258355916892502</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06482593037214886</v>
+        <v>0.06142728093947606</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1260504201680672</v>
+        <v>0.1273712737127371</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009603841536614645</v>
+        <v>0.01084010840108401</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1944777911164466</v>
+        <v>0.1996386630532972</v>
       </c>
       <c r="R10">
-        <v>0.07683073229291716</v>
+        <v>0.07949412827461608</v>
       </c>
       <c r="S10">
-        <v>0.4237695078031212</v>
+        <v>0.4191508581752484</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1648936170212766</v>
+        <v>0.1594827586206897</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0425531914893617</v>
+        <v>0.06465517241379311</v>
       </c>
       <c r="K11">
-        <v>0.1914893617021277</v>
+        <v>0.1939655172413793</v>
       </c>
       <c r="L11">
-        <v>0.5904255319148937</v>
+        <v>0.5689655172413793</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01063829787234043</v>
+        <v>0.01293103448275862</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.773109243697479</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1428571428571428</v>
+        <v>0.1642857142857143</v>
       </c>
       <c r="K12">
-        <v>0.01680672268907563</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="L12">
-        <v>0.02521008403361345</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04201680672268908</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2857142857142857</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04761904761904762</v>
+        <v>0.02857142857142857</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02479338842975207</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1983471074380165</v>
+        <v>0.1726190476190476</v>
       </c>
       <c r="I15">
-        <v>0.1487603305785124</v>
+        <v>0.125</v>
       </c>
       <c r="J15">
-        <v>0.2892561983471074</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="K15">
-        <v>0.05785123966942149</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01652892561983471</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="O15">
-        <v>0.03305785123966942</v>
+        <v>0.02976190476190476</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.231404958677686</v>
+        <v>0.2738095238095238</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01052631578947368</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2421052631578947</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="I16">
-        <v>0.1157894736842105</v>
+        <v>0.143939393939394</v>
       </c>
       <c r="J16">
-        <v>0.3157894736842105</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K16">
-        <v>0.1368421052631579</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1360,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="O16">
-        <v>0.04210526315789474</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1368421052631579</v>
+        <v>0.1136363636363636</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02797202797202797</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2447552447552448</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="I17">
-        <v>0.1083916083916084</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="J17">
-        <v>0.3951048951048951</v>
+        <v>0.3978494623655914</v>
       </c>
       <c r="K17">
-        <v>0.08041958041958042</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.006993006993006993</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04895104895104895</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08741258741258741</v>
+        <v>0.08064516129032258</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.007194244604316547</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1798561151079137</v>
+        <v>0.1899441340782123</v>
       </c>
       <c r="I18">
-        <v>0.1007194244604317</v>
+        <v>0.08379888268156424</v>
       </c>
       <c r="J18">
-        <v>0.4316546762589928</v>
+        <v>0.4134078212290503</v>
       </c>
       <c r="K18">
-        <v>0.08633093525179857</v>
+        <v>0.08379888268156424</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.007194244604316547</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04316546762589928</v>
+        <v>0.05027932960893855</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1438848920863309</v>
+        <v>0.1508379888268156</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01038421599169263</v>
+        <v>0.01105845181674566</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2471443406022845</v>
+        <v>0.2448657187993681</v>
       </c>
       <c r="I19">
-        <v>0.06438213914849429</v>
+        <v>0.06635071090047394</v>
       </c>
       <c r="J19">
-        <v>0.3914849428868121</v>
+        <v>0.391785150078989</v>
       </c>
       <c r="K19">
-        <v>0.0976116303219107</v>
+        <v>0.0924170616113744</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0166147455867082</v>
+        <v>0.01816745655608215</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05815160955347871</v>
+        <v>0.05924170616113744</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1142263759086189</v>
+        <v>0.1161137440758294</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Manhattan_A.xlsx
+++ b/team_specific_matrix/Manhattan_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1851851851851852</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="C2">
-        <v>0.5343915343915344</v>
+        <v>0.5435897435897435</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01058201058201058</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1693121693121693</v>
+        <v>0.1641025641025641</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1005291005291005</v>
+        <v>0.09743589743589744</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.009803921568627451</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04901960784313725</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7450980392156863</v>
+        <v>0.7314814814814815</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.196078431372549</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02439024390243903</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7073170731707317</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2682926829268293</v>
+        <v>0.3023255813953488</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05208333333333334</v>
+        <v>0.05</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.015625</v>
+        <v>0.015</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03645833333333334</v>
+        <v>0.04</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2135416666666667</v>
+        <v>0.22</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.005208333333333333</v>
+        <v>0.005</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1145833333333333</v>
+        <v>0.11</v>
       </c>
       <c r="R6">
-        <v>0.0625</v>
+        <v>0.065</v>
       </c>
       <c r="S6">
-        <v>0.5</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05555555555555555</v>
+        <v>0.05294117647058823</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04320987654320987</v>
+        <v>0.04117647058823529</v>
       </c>
       <c r="E7">
-        <v>0.006172839506172839</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="F7">
-        <v>0.06172839506172839</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1234567901234568</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01851851851851852</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1728395061728395</v>
+        <v>0.1705882352941177</v>
       </c>
       <c r="R7">
-        <v>0.1358024691358025</v>
+        <v>0.1352941176470588</v>
       </c>
       <c r="S7">
-        <v>0.382716049382716</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06004140786749482</v>
+        <v>0.062</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01449275362318841</v>
+        <v>0.014</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07867494824016563</v>
+        <v>0.078</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08695652173913043</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02691511387163561</v>
+        <v>0.026</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1697722567287785</v>
+        <v>0.174</v>
       </c>
       <c r="R8">
-        <v>0.09109730848861283</v>
+        <v>0.092</v>
       </c>
       <c r="S8">
-        <v>0.4720496894409938</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05978260869565218</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005434782608695652</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05978260869565218</v>
+        <v>0.0582010582010582</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07065217391304347</v>
+        <v>0.08465608465608465</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01630434782608696</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1467391304347826</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R9">
-        <v>0.08695652173913043</v>
+        <v>0.08994708994708994</v>
       </c>
       <c r="S9">
-        <v>0.5543478260869565</v>
+        <v>0.5396825396825397</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.07949412827461608</v>
+        <v>0.07860262008733625</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02258355916892502</v>
+        <v>0.02358078602620087</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06142728093947606</v>
+        <v>0.06200873362445415</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1273712737127371</v>
+        <v>0.1240174672489083</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01084010840108401</v>
+        <v>0.01135371179039301</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1996386630532972</v>
+        <v>0.2034934497816594</v>
       </c>
       <c r="R10">
-        <v>0.07949412827461608</v>
+        <v>0.07860262008733625</v>
       </c>
       <c r="S10">
-        <v>0.4191508581752484</v>
+        <v>0.4183406113537118</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1594827586206897</v>
+        <v>0.1604938271604938</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06465517241379311</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="K11">
-        <v>0.1939655172413793</v>
+        <v>0.1934156378600823</v>
       </c>
       <c r="L11">
-        <v>0.5689655172413793</v>
+        <v>0.5720164609053497</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01293103448275862</v>
+        <v>0.01234567901234568</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.75</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1642857142857143</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="K12">
-        <v>0.01428571428571429</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="L12">
-        <v>0.02142857142857143</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7428571428571429</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2285714285714286</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1726190476190476</v>
+        <v>0.1686046511627907</v>
       </c>
       <c r="I15">
-        <v>0.125</v>
+        <v>0.1279069767441861</v>
       </c>
       <c r="J15">
-        <v>0.3095238095238095</v>
+        <v>0.3081395348837209</v>
       </c>
       <c r="K15">
-        <v>0.04166666666666666</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01785714285714286</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="N15">
-        <v>0.005952380952380952</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="O15">
-        <v>0.02976190476190476</v>
+        <v>0.02906976744186046</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2738095238095238</v>
+        <v>0.2732558139534884</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007575757575757576</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2424242424242424</v>
+        <v>0.237037037037037</v>
       </c>
       <c r="I16">
-        <v>0.143939393939394</v>
+        <v>0.1407407407407407</v>
       </c>
       <c r="J16">
-        <v>0.3333333333333333</v>
+        <v>0.3407407407407407</v>
       </c>
       <c r="K16">
-        <v>0.1060606060606061</v>
+        <v>0.1037037037037037</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1360,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.007575757575757576</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="O16">
-        <v>0.04545454545454546</v>
+        <v>0.05185185185185185</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1136363636363636</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02419354838709677</v>
+        <v>0.02827763496143959</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2258064516129032</v>
+        <v>0.2287917737789203</v>
       </c>
       <c r="I17">
-        <v>0.1182795698924731</v>
+        <v>0.115681233933162</v>
       </c>
       <c r="J17">
-        <v>0.3978494623655914</v>
+        <v>0.3933161953727506</v>
       </c>
       <c r="K17">
-        <v>0.08333333333333333</v>
+        <v>0.08483290488431877</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01612903225806452</v>
+        <v>0.01542416452442159</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05376344086021505</v>
+        <v>0.05141388174807198</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08064516129032258</v>
+        <v>0.08226221079691516</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0111731843575419</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1899441340782123</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="I18">
-        <v>0.08379888268156424</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="J18">
-        <v>0.4134078212290503</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="K18">
-        <v>0.08379888268156424</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01675977653631285</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05027932960893855</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1508379888268156</v>
+        <v>0.1505376344086022</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01105845181674566</v>
+        <v>0.01066260472201066</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2448657187993681</v>
+        <v>0.2444782939832445</v>
       </c>
       <c r="I19">
-        <v>0.06635071090047394</v>
+        <v>0.06549885757806551</v>
       </c>
       <c r="J19">
-        <v>0.391785150078989</v>
+        <v>0.38994668697639</v>
       </c>
       <c r="K19">
-        <v>0.0924170616113744</v>
+        <v>0.09367859862909368</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01816745655608215</v>
+        <v>0.01827875095201828</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05924170616113744</v>
+        <v>0.05788271134805788</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1161137440758294</v>
+        <v>0.1195734958111196</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Manhattan_A.xlsx
+++ b/team_specific_matrix/Manhattan_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1846153846153846</v>
+        <v>0.1822660098522167</v>
       </c>
       <c r="C2">
-        <v>0.5435897435897435</v>
+        <v>0.5467980295566502</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01025641025641026</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1641025641025641</v>
+        <v>0.1625615763546798</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09743589743589744</v>
+        <v>0.09852216748768473</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01851851851851852</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04629629629629629</v>
+        <v>0.04385964912280702</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7314814814814815</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2037037037037037</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02325581395348837</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6744186046511628</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3023255813953488</v>
+        <v>0.2826086956521739</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05</v>
+        <v>0.05164319248826291</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.015</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04</v>
+        <v>0.03755868544600939</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.22</v>
+        <v>0.2206572769953052</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.005</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.11</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="R6">
-        <v>0.065</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="S6">
-        <v>0.495</v>
+        <v>0.4741784037558686</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05294117647058823</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04117647058823529</v>
+        <v>0.03954802259887006</v>
       </c>
       <c r="E7">
-        <v>0.005882352941176471</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="F7">
-        <v>0.05882352941176471</v>
+        <v>0.05649717514124294</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1176470588235294</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01764705882352941</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1705882352941177</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="R7">
-        <v>0.1352941176470588</v>
+        <v>0.1299435028248588</v>
       </c>
       <c r="S7">
-        <v>0.4</v>
+        <v>0.4124293785310734</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.062</v>
+        <v>0.06088560885608856</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.014</v>
+        <v>0.01476014760147601</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.078</v>
+        <v>0.07195571955719557</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08599999999999999</v>
+        <v>0.08856088560885608</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.026</v>
+        <v>0.02583025830258303</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.174</v>
+        <v>0.1752767527675277</v>
       </c>
       <c r="R8">
-        <v>0.092</v>
+        <v>0.0940959409594096</v>
       </c>
       <c r="S8">
-        <v>0.468</v>
+        <v>0.4686346863468634</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06349206349206349</v>
+        <v>0.05853658536585366</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005291005291005291</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0582010582010582</v>
+        <v>0.06341463414634146</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08465608465608465</v>
+        <v>0.08292682926829269</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01587301587301587</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1428571428571428</v>
+        <v>0.1414634146341463</v>
       </c>
       <c r="R9">
-        <v>0.08994708994708994</v>
+        <v>0.09268292682926829</v>
       </c>
       <c r="S9">
-        <v>0.5396825396825397</v>
+        <v>0.5317073170731708</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.07860262008733625</v>
+        <v>0.07604251839738348</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02358078602620087</v>
+        <v>0.02207686017988553</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06200873362445415</v>
+        <v>0.06295993458708095</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1240174672489083</v>
+        <v>0.1234668847097302</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01135371179039301</v>
+        <v>0.01062959934587081</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2034934497816594</v>
+        <v>0.2044153720359771</v>
       </c>
       <c r="R10">
-        <v>0.07860262008733625</v>
+        <v>0.07849550286181521</v>
       </c>
       <c r="S10">
-        <v>0.4183406113537118</v>
+        <v>0.4219133278822568</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1604938271604938</v>
+        <v>0.1660079051383399</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06172839506172839</v>
+        <v>0.05928853754940711</v>
       </c>
       <c r="K11">
-        <v>0.1934156378600823</v>
+        <v>0.1976284584980237</v>
       </c>
       <c r="L11">
-        <v>0.5720164609053497</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01234567901234568</v>
+        <v>0.01185770750988142</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7551020408163265</v>
+        <v>0.7549668874172185</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.163265306122449</v>
+        <v>0.1589403973509934</v>
       </c>
       <c r="K12">
-        <v>0.01360544217687075</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="L12">
-        <v>0.02040816326530612</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04761904761904762</v>
+        <v>0.05298013245033113</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7222222222222222</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02325581395348837</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1686046511627907</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="I15">
-        <v>0.1279069767441861</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="J15">
-        <v>0.3081395348837209</v>
+        <v>0.3060109289617486</v>
       </c>
       <c r="K15">
-        <v>0.04651162790697674</v>
+        <v>0.04371584699453552</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01744186046511628</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="N15">
-        <v>0.005813953488372093</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="O15">
-        <v>0.02906976744186046</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2732558139534884</v>
+        <v>0.273224043715847</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007407407407407408</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.237037037037037</v>
+        <v>0.2340425531914894</v>
       </c>
       <c r="I16">
-        <v>0.1407407407407407</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="J16">
-        <v>0.3407407407407407</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="K16">
-        <v>0.1037037037037037</v>
+        <v>0.09929078014184398</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1360,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.007407407407407408</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="O16">
-        <v>0.05185185185185185</v>
+        <v>0.05673758865248227</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1111111111111111</v>
+        <v>0.1063829787234043</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02827763496143959</v>
+        <v>0.02612826603325416</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2287917737789203</v>
+        <v>0.2280285035629454</v>
       </c>
       <c r="I17">
-        <v>0.115681233933162</v>
+        <v>0.1211401425178147</v>
       </c>
       <c r="J17">
-        <v>0.3933161953727506</v>
+        <v>0.3942992874109263</v>
       </c>
       <c r="K17">
-        <v>0.08483290488431877</v>
+        <v>0.0831353919239905</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01542416452442159</v>
+        <v>0.01425178147268409</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05141388174807198</v>
+        <v>0.0498812351543943</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08226221079691516</v>
+        <v>0.0831353919239905</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01075268817204301</v>
+        <v>0.009950248756218905</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1881720430107527</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="I18">
-        <v>0.08602150537634409</v>
+        <v>0.0845771144278607</v>
       </c>
       <c r="J18">
-        <v>0.4193548387096774</v>
+        <v>0.4278606965174129</v>
       </c>
       <c r="K18">
-        <v>0.08064516129032258</v>
+        <v>0.07960199004975124</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01612903225806452</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04838709677419355</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1505376344086022</v>
+        <v>0.1442786069651741</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01066260472201066</v>
+        <v>0.01138790035587189</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2444782939832445</v>
+        <v>0.2476868327402135</v>
       </c>
       <c r="I19">
-        <v>0.06549885757806551</v>
+        <v>0.06548042704626335</v>
       </c>
       <c r="J19">
-        <v>0.38994668697639</v>
+        <v>0.3886120996441281</v>
       </c>
       <c r="K19">
-        <v>0.09367859862909368</v>
+        <v>0.0903914590747331</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01827875095201828</v>
+        <v>0.01779359430604982</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05788271134805788</v>
+        <v>0.05907473309608541</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1195734958111196</v>
+        <v>0.1195729537366548</v>
       </c>
     </row>
   </sheetData>
